--- a/exceldata/excel/all/U-UI内容表.xlsx
+++ b/exceldata/excel/all/U-UI内容表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="454">
   <si>
     <t>1小的帮助框
 2大的带标题的
@@ -1440,6 +1440,9 @@
   </si>
   <si>
     <t>LoverVideosUI</t>
+  </si>
+  <si>
+    <t>钻石//精力丹//帮众</t>
   </si>
   <si>
     <t>时装</t>
@@ -2900,8 +2903,8 @@
   <sheetPr/>
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" topLeftCell="E119" workbookViewId="0">
+      <selection activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2912,7 +2915,7 @@
     <col min="4" max="4" width="14.125" style="6" customWidth="1"/>
     <col min="5" max="5" width="69.5480769230769" style="5" customWidth="1"/>
     <col min="6" max="6" width="94.8653846153846" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.1538461538462" customWidth="1"/>
+    <col min="7" max="7" width="65.8653846153846" customWidth="1"/>
     <col min="8" max="8" width="39.0961538461538" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
@@ -5196,7 +5199,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="123" ht="30" customHeight="1" spans="1:7">
+    <row r="123" ht="21" customHeight="1" spans="1:7">
       <c r="A123" s="7" t="s">
         <v>435</v>
       </c>
@@ -5272,7 +5275,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" ht="17" spans="1:7">
       <c r="A129" t="s">
         <v>448</v>
       </c>
@@ -5282,27 +5285,36 @@
       <c r="C129" s="5" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="G129" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="130" ht="17" spans="1:7">
       <c r="A130" t="s">
+        <v>451</v>
+      </c>
+      <c r="B130" t="s">
+        <v>452</v>
+      </c>
+      <c r="C130" t="s">
+        <v>451</v>
+      </c>
+      <c r="G130" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B130" t="s">
-        <v>451</v>
-      </c>
-      <c r="C130" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+    </row>
+    <row r="131" ht="17" spans="1:7">
       <c r="A131" t="s">
         <v>305</v>
       </c>
       <c r="B131" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>305</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/U-UI内容表.xlsx
+++ b/exceldata/excel/all/U-UI内容表.xlsx
@@ -1998,7 +1998,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2050,15 +2050,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2200,7 +2191,7 @@
     <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="49" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="49" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2230,13 +2221,13 @@
     <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="50" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="50" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2254,19 +2245,19 @@
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="48" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="48" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="50" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2305,7 +2296,7 @@
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2323,7 +2314,7 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="1">
@@ -2332,7 +2323,7 @@
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2342,11 +2333,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2527,13 +2518,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2903,8 +2888,8 @@
   <sheetPr/>
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E119" workbookViewId="0">
-      <selection activeCell="G133" sqref="G133"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4300,7 +4285,7 @@
         <v>274</v>
       </c>
       <c r="F70" s="26"/>
-      <c r="G70" s="85" t="s">
+      <c r="G70" s="81" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5203,10 +5188,10 @@
       <c r="A123" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="B123" s="80" t="s">
+      <c r="B123" s="79" t="s">
         <v>436</v>
       </c>
-      <c r="C123" s="81" t="s">
+      <c r="C123" s="8" t="s">
         <v>435</v>
       </c>
       <c r="D123" s="76"/>
@@ -5216,103 +5201,128 @@
         <v>264</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="82" t="s">
+    <row r="124" spans="1:7">
+      <c r="A124" s="80" t="s">
         <v>437</v>
       </c>
-      <c r="B124" s="80" t="s">
+      <c r="B124" s="79" t="s">
         <v>438</v>
       </c>
-      <c r="C124" s="83" t="s">
+      <c r="C124" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="D124" s="84"/>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="D124" s="76"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="26"/>
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="B125" s="81" t="s">
+      <c r="B125" s="79" t="s">
         <v>441</v>
       </c>
-      <c r="C125" s="81" t="s">
+      <c r="C125" s="8" t="s">
         <v>440</v>
       </c>
       <c r="D125" s="76"/>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125" s="26"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="B126" s="81" t="s">
+      <c r="B126" s="79" t="s">
         <v>443</v>
       </c>
-      <c r="C126" s="81" t="s">
+      <c r="C126" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="D126" s="84"/>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="D126" s="76"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="26"/>
+      <c r="G126" s="3"/>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>444</v>
       </c>
-      <c r="B127" s="81" t="s">
+      <c r="B127" s="79" t="s">
         <v>445</v>
       </c>
-      <c r="C127" s="81" t="s">
+      <c r="C127" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="D127" s="84"/>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" s="76"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="26"/>
+      <c r="G127" s="3"/>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="79" t="s">
         <v>447</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="8" t="s">
         <v>446</v>
       </c>
+      <c r="D128" s="76"/>
+      <c r="E128" s="26"/>
+      <c r="F128" s="26"/>
+      <c r="G128" s="3"/>
     </row>
     <row r="129" ht="17" spans="1:7">
-      <c r="A129" t="s">
+      <c r="A129" s="79" t="s">
         <v>448</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="79" t="s">
         <v>449</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="8" t="s">
         <v>448</v>
       </c>
+      <c r="D129" s="76"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
       <c r="G129" s="3" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="130" ht="17" spans="1:7">
-      <c r="A130" t="s">
+      <c r="A130" s="79" t="s">
         <v>451</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="79" t="s">
         <v>452</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="8" t="s">
         <v>451</v>
       </c>
+      <c r="D130" s="76"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="26"/>
       <c r="G130" s="3" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="131" ht="17" spans="1:7">
-      <c r="A131" t="s">
+      <c r="A131" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="79" t="s">
         <v>453</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C131" s="8" t="s">
         <v>305</v>
       </c>
+      <c r="D131" s="76"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="26"/>
       <c r="G131" s="3" t="s">
         <v>450</v>
       </c>

--- a/exceldata/excel/all/U-UI内容表.xlsx
+++ b/exceldata/excel/all/U-UI内容表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240"/>
+    <workbookView windowWidth="27900" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="ui内容表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="455">
   <si>
     <t>1小的帮助框
 2大的带标题的
@@ -1424,6 +1424,9 @@
     <t>BarUI</t>
   </si>
   <si>
+    <t>参加小游戏获得英雄碎片//大堂参加扳手腕获得获得碎片//包厢参加倒红酒游戏获得英雄和情人碎片</t>
+  </si>
+  <si>
     <t>倒红酒</t>
   </si>
   <si>
@@ -1459,12 +1462,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1485,13 +1488,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -1505,11 +1501,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1517,11 +1508,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1540,15 +1530,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1570,6 +1561,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1578,9 +1582,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1594,24 +1598,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1623,28 +1613,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1678,7 +1667,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="54">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1813,7 +1802,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,19 +1856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1849,7 +1868,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1861,55 +1916,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1921,67 +1934,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1993,7 +1946,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2068,26 +2021,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2108,6 +2041,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2119,6 +2078,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2152,192 +2120,177 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" applyFill="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" applyFill="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="47" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="49" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="50" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="48" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2458,9 +2411,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2497,7 +2449,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2515,22 +2467,22 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通数值" xfId="1"/>
-    <cellStyle name="常规 6" xfId="2"/>
-    <cellStyle name="常规 5" xfId="3"/>
-    <cellStyle name="常规 4" xfId="4"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="1表头" xfId="6"/>
+    <cellStyle name="1表头" xfId="1"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 4" xfId="3"/>
+    <cellStyle name="常规 5" xfId="4"/>
+    <cellStyle name="常规 6" xfId="5"/>
+    <cellStyle name="普通数值" xfId="6"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="7" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="8" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="9" builtinId="41"/>
@@ -2888,8 +2840,8 @@
   <sheetPr/>
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2897,8 +2849,8 @@
     <col min="1" max="1" width="42.125" customWidth="1"/>
     <col min="2" max="2" width="29.375" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="69.5480769230769" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32.8461538461538" style="6" customWidth="1"/>
+    <col min="5" max="5" width="129" style="5" customWidth="1"/>
     <col min="6" max="6" width="94.8653846153846" style="5" customWidth="1"/>
     <col min="7" max="7" width="65.8653846153846" customWidth="1"/>
     <col min="8" max="8" width="39.0961538461538" customWidth="1"/>
@@ -2981,7 +2933,7 @@
       <c r="G4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="58" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="13"/>
@@ -3008,7 +2960,7 @@
       <c r="G5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="58" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="13"/>
@@ -3029,9 +2981,9 @@
       <c r="G6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="71"/>
-    </row>
-    <row r="7" ht="30" customHeight="1" spans="1:7">
+      <c r="I6" s="70"/>
+    </row>
+    <row r="7" ht="68" customHeight="1" spans="1:7">
       <c r="A7" s="17" t="s">
         <v>31</v>
       </c>
@@ -3044,10 +2996,10 @@
       <c r="D7" s="19">
         <v>1</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="61"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="18" t="s">
         <v>35</v>
       </c>
@@ -3103,10 +3055,10 @@
       <c r="D10" s="19">
         <v>1</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="18" t="s">
         <v>35</v>
       </c>
@@ -3267,7 +3219,7 @@
       <c r="G18" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="63"/>
+      <c r="H18" s="62"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:7">
       <c r="A19" s="25" t="s">
@@ -3396,10 +3348,10 @@
       <c r="D25" s="19">
         <v>1</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="61"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="18" t="s">
         <v>109</v>
       </c>
@@ -3417,10 +3369,10 @@
       <c r="D26" s="19">
         <v>1</v>
       </c>
-      <c r="E26" s="61" t="s">
+      <c r="E26" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="61"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="18" t="s">
         <v>109</v>
       </c>
@@ -3438,10 +3390,10 @@
       <c r="D27" s="19">
         <v>1</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="61"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="18"/>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:7">
@@ -3457,10 +3409,10 @@
       <c r="D28" s="19">
         <v>1</v>
       </c>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="61"/>
+      <c r="F28" s="60"/>
       <c r="G28" s="18" t="s">
         <v>109</v>
       </c>
@@ -3478,10 +3430,10 @@
       <c r="D29" s="19">
         <v>1</v>
       </c>
-      <c r="E29" s="61" t="s">
+      <c r="E29" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="61"/>
+      <c r="F29" s="60"/>
       <c r="G29" s="18" t="s">
         <v>109</v>
       </c>
@@ -3499,10 +3451,10 @@
       <c r="D30" s="19">
         <v>1</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="61"/>
+      <c r="F30" s="60"/>
       <c r="G30" s="18"/>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:7">
@@ -3516,10 +3468,10 @@
         <v>126</v>
       </c>
       <c r="D31" s="19"/>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="61"/>
+      <c r="F31" s="60"/>
       <c r="G31" s="18"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:7">
@@ -3533,10 +3485,10 @@
         <v>130</v>
       </c>
       <c r="D32" s="19"/>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="F32" s="61"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="18"/>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:7">
@@ -3550,10 +3502,10 @@
         <v>134</v>
       </c>
       <c r="D33" s="31"/>
-      <c r="E33" s="61" t="s">
+      <c r="E33" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="F33" s="61"/>
+      <c r="F33" s="60"/>
       <c r="G33" s="30" t="s">
         <v>136</v>
       </c>
@@ -3571,10 +3523,10 @@
       <c r="D34" s="31">
         <v>1</v>
       </c>
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="61"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="30" t="s">
         <v>136</v>
       </c>
@@ -3620,7 +3572,7 @@
       <c r="G36" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="H36" s="64"/>
+      <c r="H36" s="63"/>
       <c r="I36" s="33"/>
     </row>
     <row r="37" ht="30" customHeight="1" spans="1:9">
@@ -3641,7 +3593,7 @@
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="33"/>
-      <c r="H37" s="64"/>
+      <c r="H37" s="63"/>
       <c r="I37" s="33"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
@@ -3664,7 +3616,7 @@
       <c r="G38" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H38" s="65"/>
+      <c r="H38" s="64"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
       <c r="A39" s="2" t="s">
@@ -3686,7 +3638,7 @@
       <c r="G39" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H39" s="65"/>
+      <c r="H39" s="64"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
       <c r="A40" s="2" t="s">
@@ -3708,7 +3660,7 @@
       <c r="G40" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="65"/>
+      <c r="H40" s="64"/>
     </row>
     <row r="41" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
       <c r="A41" s="3" t="s">
@@ -3727,7 +3679,7 @@
         <v>165</v>
       </c>
       <c r="F41" s="34"/>
-      <c r="H41" s="66"/>
+      <c r="H41" s="65"/>
     </row>
     <row r="42" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
       <c r="A42" s="3" t="s">
@@ -3749,7 +3701,7 @@
       <c r="G42" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H42" s="66"/>
+      <c r="H42" s="65"/>
     </row>
     <row r="43" s="4" customFormat="1" ht="30" customHeight="1" spans="1:8">
       <c r="A43" s="4" t="s">
@@ -3771,7 +3723,7 @@
       <c r="G43" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="H43" s="67"/>
+      <c r="H43" s="66"/>
     </row>
     <row r="44" s="4" customFormat="1" ht="30" customHeight="1" spans="1:8">
       <c r="A44" s="4" t="s">
@@ -3786,7 +3738,7 @@
       <c r="D44" s="40"/>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
-      <c r="H44" s="67"/>
+      <c r="H44" s="66"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
       <c r="A45" s="2" t="s">
@@ -3808,7 +3760,7 @@
       <c r="G45" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="65" t="b">
+      <c r="H45" s="64" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3942,8 +3894,8 @@
       <c r="G52" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
     </row>
     <row r="53" ht="30" customHeight="1" spans="1:8">
       <c r="A53" s="47" t="s">
@@ -3963,7 +3915,7 @@
       <c r="G53" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="H53" s="63" t="b">
+      <c r="H53" s="62" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3983,7 +3935,7 @@
       <c r="G54" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="H54" s="63" t="b">
+      <c r="H54" s="62" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4005,7 +3957,7 @@
       <c r="G55" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="H55" s="63" t="b">
+      <c r="H55" s="62" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4025,7 +3977,7 @@
       <c r="G56" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="H56" s="63" t="b">
+      <c r="H56" s="62" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4047,7 +3999,7 @@
       <c r="G57" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="H57" s="63" t="b">
+      <c r="H57" s="62" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4070,24 +4022,24 @@
       <c r="A59" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="C59" s="51" t="s">
+      <c r="C59" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="D59" s="52"/>
-      <c r="E59" s="51" t="s">
+      <c r="D59" s="51"/>
+      <c r="E59" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="F59" s="51"/>
-      <c r="G59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="49"/>
     </row>
     <row r="60" ht="94" customHeight="1" spans="1:8">
-      <c r="A60" s="53" t="s">
+      <c r="A60" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="52" t="s">
         <v>236</v>
       </c>
       <c r="C60" s="27" t="s">
@@ -4108,29 +4060,29 @@
       </c>
     </row>
     <row r="61" ht="30" customHeight="1" spans="1:9">
-      <c r="A61" s="54" t="s">
+      <c r="A61" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="B61" s="54" t="s">
+      <c r="B61" s="53" t="s">
         <v>240</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="D61" s="55"/>
+      <c r="D61" s="54"/>
       <c r="E61" s="26" t="s">
         <v>242</v>
       </c>
       <c r="F61" s="26"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="70"/>
-      <c r="I61" s="70"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
     </row>
     <row r="62" ht="30" customHeight="1" spans="1:7">
-      <c r="A62" s="56" t="s">
+      <c r="A62" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="B62" s="56" t="s">
+      <c r="B62" s="55" t="s">
         <v>244</v>
       </c>
       <c r="C62" s="26" t="s">
@@ -4141,326 +4093,326 @@
         <v>246</v>
       </c>
       <c r="F62" s="26"/>
-      <c r="G62" s="56" t="s">
+      <c r="G62" s="55" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="63" ht="30" customHeight="1" spans="1:7">
-      <c r="A63" s="57" t="s">
+      <c r="A63" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="56" t="s">
         <v>248</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="D63" s="58"/>
+      <c r="D63" s="57"/>
       <c r="E63" s="26">
         <v>1226354</v>
       </c>
       <c r="F63" s="26"/>
-      <c r="G63" s="57"/>
+      <c r="G63" s="56"/>
     </row>
     <row r="64" ht="30" customHeight="1" spans="1:7">
-      <c r="A64" s="57" t="s">
+      <c r="A64" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="56" t="s">
         <v>251</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="D64" s="58"/>
+      <c r="D64" s="57"/>
       <c r="E64" s="26" t="s">
         <v>253</v>
       </c>
       <c r="F64" s="26"/>
-      <c r="G64" s="57"/>
+      <c r="G64" s="56"/>
     </row>
     <row r="65" ht="30" customHeight="1" spans="1:7">
-      <c r="A65" s="57" t="s">
+      <c r="A65" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="B65" s="57" t="s">
+      <c r="B65" s="56" t="s">
         <v>255</v>
       </c>
       <c r="C65" s="26"/>
-      <c r="D65" s="58"/>
+      <c r="D65" s="57"/>
       <c r="E65" s="26" t="s">
         <v>256</v>
       </c>
       <c r="F65" s="26"/>
-      <c r="G65" s="57"/>
+      <c r="G65" s="56"/>
     </row>
     <row r="66" ht="30" customHeight="1" spans="1:7">
-      <c r="A66" s="57" t="s">
+      <c r="A66" s="56" t="s">
         <v>257</v>
       </c>
-      <c r="B66" s="57" t="s">
+      <c r="B66" s="56" t="s">
         <v>258</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D66" s="58"/>
+      <c r="D66" s="57"/>
       <c r="E66" s="26" t="s">
         <v>260</v>
       </c>
       <c r="F66" s="26"/>
-      <c r="G66" s="57"/>
+      <c r="G66" s="56"/>
     </row>
     <row r="67" ht="30" customHeight="1" spans="1:7">
-      <c r="A67" s="72" t="s">
+      <c r="A67" s="71" t="s">
         <v>261</v>
       </c>
-      <c r="B67" s="72" t="s">
+      <c r="B67" s="71" t="s">
         <v>262</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="D67" s="73">
+      <c r="D67" s="72">
         <v>1</v>
       </c>
       <c r="E67" s="34" t="s">
         <v>263</v>
       </c>
       <c r="F67" s="26"/>
-      <c r="G67" s="72" t="s">
+      <c r="G67" s="71" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="68" ht="30" customHeight="1" spans="1:7">
-      <c r="A68" s="72" t="s">
+      <c r="A68" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="B68" s="72" t="s">
+      <c r="B68" s="71" t="s">
         <v>266</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="D68" s="73">
+      <c r="D68" s="72">
         <v>1</v>
       </c>
       <c r="E68" s="34" t="s">
         <v>267</v>
       </c>
       <c r="F68" s="26"/>
-      <c r="G68" s="72"/>
+      <c r="G68" s="71"/>
     </row>
     <row r="69" ht="30" customHeight="1" spans="1:7">
-      <c r="A69" s="72" t="s">
+      <c r="A69" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="B69" s="72" t="s">
+      <c r="B69" s="71" t="s">
         <v>269</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="D69" s="73">
+      <c r="D69" s="72">
         <v>1</v>
       </c>
       <c r="E69" s="34" t="s">
         <v>270</v>
       </c>
       <c r="F69" s="26"/>
-      <c r="G69" s="72"/>
+      <c r="G69" s="71"/>
     </row>
     <row r="70" ht="30" customHeight="1" spans="1:7">
-      <c r="A70" s="72" t="s">
+      <c r="A70" s="71" t="s">
         <v>271</v>
       </c>
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="71" t="s">
         <v>272</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="D70" s="73"/>
+      <c r="D70" s="72"/>
       <c r="E70" s="26" t="s">
         <v>274</v>
       </c>
       <c r="F70" s="26"/>
-      <c r="G70" s="81" t="s">
+      <c r="G70" s="80" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="71" ht="30" customHeight="1" spans="1:7">
-      <c r="A71" s="72" t="s">
+      <c r="A71" s="71" t="s">
         <v>275</v>
       </c>
-      <c r="B71" s="72" t="s">
+      <c r="B71" s="71" t="s">
         <v>276</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="D71" s="73">
+      <c r="D71" s="72">
         <v>2</v>
       </c>
       <c r="E71" s="26"/>
       <c r="F71" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="G71" s="72" t="s">
+      <c r="G71" s="71" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="72" ht="30" customHeight="1" spans="1:7">
-      <c r="A72" s="72" t="s">
+      <c r="A72" s="71" t="s">
         <v>279</v>
       </c>
-      <c r="B72" s="72" t="s">
+      <c r="B72" s="71" t="s">
         <v>280</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="D72" s="73"/>
+      <c r="D72" s="72"/>
       <c r="E72" s="26" t="s">
         <v>282</v>
       </c>
       <c r="F72" s="26"/>
-      <c r="G72" s="72" t="s">
+      <c r="G72" s="71" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="73" ht="30" customHeight="1" spans="1:7">
-      <c r="A73" s="72" t="s">
+      <c r="A73" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="B73" s="72" t="s">
+      <c r="B73" s="71" t="s">
         <v>284</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="D73" s="73"/>
+      <c r="D73" s="72"/>
       <c r="E73" s="26" t="s">
         <v>286</v>
       </c>
       <c r="F73" s="26"/>
-      <c r="G73" s="72"/>
+      <c r="G73" s="71"/>
     </row>
     <row r="74" ht="30" customHeight="1" spans="1:7">
-      <c r="A74" s="72" t="s">
+      <c r="A74" s="71" t="s">
         <v>287</v>
       </c>
-      <c r="B74" s="72" t="s">
+      <c r="B74" s="71" t="s">
         <v>288</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="D74" s="73">
+      <c r="D74" s="72">
         <v>1</v>
       </c>
       <c r="E74" s="34" t="s">
         <v>290</v>
       </c>
       <c r="F74" s="26"/>
-      <c r="G74" s="72"/>
+      <c r="G74" s="71"/>
     </row>
     <row r="75" ht="30" customHeight="1" spans="1:7">
-      <c r="A75" s="72" t="s">
+      <c r="A75" s="71" t="s">
         <v>291</v>
       </c>
-      <c r="B75" s="72" t="s">
+      <c r="B75" s="71" t="s">
         <v>292</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="D75" s="73"/>
+      <c r="D75" s="72"/>
       <c r="E75" s="26" t="s">
         <v>294</v>
       </c>
       <c r="F75" s="26"/>
-      <c r="G75" s="72"/>
+      <c r="G75" s="71"/>
     </row>
     <row r="76" ht="30" customHeight="1" spans="1:7">
-      <c r="A76" s="72" t="s">
+      <c r="A76" s="71" t="s">
         <v>295</v>
       </c>
-      <c r="B76" s="72" t="s">
+      <c r="B76" s="71" t="s">
         <v>296</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="D76" s="73"/>
+      <c r="D76" s="72"/>
       <c r="E76" s="26" t="s">
         <v>298</v>
       </c>
       <c r="F76" s="26"/>
-      <c r="G76" s="72"/>
+      <c r="G76" s="71"/>
     </row>
     <row r="77" ht="30" customHeight="1" spans="1:7">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="B77" s="72" t="s">
+      <c r="B77" s="71" t="s">
         <v>300</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="D77" s="73"/>
+      <c r="D77" s="72"/>
       <c r="E77" s="26" t="s">
         <v>294</v>
       </c>
       <c r="F77" s="26"/>
-      <c r="G77" s="72"/>
+      <c r="G77" s="71"/>
     </row>
     <row r="78" ht="30" customHeight="1" spans="1:7">
-      <c r="A78" s="72" t="s">
+      <c r="A78" s="71" t="s">
         <v>301</v>
       </c>
-      <c r="B78" s="72" t="s">
+      <c r="B78" s="71" t="s">
         <v>302</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="D78" s="73"/>
+      <c r="D78" s="72"/>
       <c r="E78" s="26" t="s">
         <v>294</v>
       </c>
       <c r="F78" s="26"/>
-      <c r="G78" s="72"/>
+      <c r="G78" s="71"/>
     </row>
     <row r="79" ht="30" customHeight="1" spans="1:7">
-      <c r="A79" s="72" t="s">
+      <c r="A79" s="71" t="s">
         <v>303</v>
       </c>
-      <c r="B79" s="72" t="s">
+      <c r="B79" s="71" t="s">
         <v>304</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="D79" s="73"/>
+      <c r="D79" s="72"/>
       <c r="E79" s="26" t="s">
         <v>306</v>
       </c>
       <c r="F79" s="26"/>
-      <c r="G79" s="72"/>
+      <c r="G79" s="71"/>
     </row>
     <row r="80" ht="30" customHeight="1" spans="1:7">
-      <c r="A80" s="74" t="s">
+      <c r="A80" s="73" t="s">
         <v>307</v>
       </c>
-      <c r="B80" s="74" t="s">
+      <c r="B80" s="73" t="s">
         <v>308</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="D80" s="75">
+      <c r="D80" s="74">
         <v>2</v>
       </c>
       <c r="E80" s="26" t="s">
@@ -4469,109 +4421,109 @@
       <c r="F80" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="G80" s="74" t="s">
+      <c r="G80" s="73" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="81" ht="30" customHeight="1" spans="1:7">
-      <c r="A81" s="74" t="s">
+      <c r="A81" s="73" t="s">
         <v>313</v>
       </c>
-      <c r="B81" s="74" t="s">
+      <c r="B81" s="73" t="s">
         <v>314</v>
       </c>
       <c r="C81" s="26"/>
-      <c r="D81" s="75"/>
+      <c r="D81" s="74"/>
       <c r="E81" s="26" t="s">
         <v>310</v>
       </c>
       <c r="F81" s="26"/>
-      <c r="G81" s="74" t="s">
+      <c r="G81" s="73" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="82" ht="30" customHeight="1" spans="1:7">
-      <c r="A82" s="74" t="s">
+      <c r="A82" s="73" t="s">
         <v>305</v>
       </c>
-      <c r="B82" s="74" t="s">
+      <c r="B82" s="73" t="s">
         <v>315</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="D82" s="75"/>
+      <c r="D82" s="74"/>
       <c r="E82" s="26" t="s">
         <v>316</v>
       </c>
       <c r="F82" s="26"/>
-      <c r="G82" s="74"/>
+      <c r="G82" s="73"/>
     </row>
     <row r="83" ht="30" customHeight="1" spans="1:7">
-      <c r="A83" s="57" t="s">
+      <c r="A83" s="56" t="s">
         <v>317</v>
       </c>
-      <c r="B83" s="57" t="s">
+      <c r="B83" s="56" t="s">
         <v>318</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="D83" s="58"/>
+      <c r="D83" s="57"/>
       <c r="E83" s="26" t="s">
         <v>320</v>
       </c>
       <c r="F83" s="26"/>
-      <c r="G83" s="57" t="s">
+      <c r="G83" s="56" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="84" ht="51" customHeight="1" spans="1:9">
-      <c r="A84" s="74" t="s">
+      <c r="A84" s="73" t="s">
         <v>321</v>
       </c>
-      <c r="B84" s="74" t="s">
+      <c r="B84" s="73" t="s">
         <v>322</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="D84" s="76"/>
+      <c r="D84" s="75"/>
       <c r="E84" s="26"/>
       <c r="F84" s="26"/>
       <c r="G84" s="7"/>
       <c r="H84" t="b">
         <v>1</v>
       </c>
-      <c r="I84" s="68"/>
+      <c r="I84" s="67"/>
     </row>
     <row r="85" ht="30" customHeight="1" spans="1:9">
-      <c r="A85" s="74" t="s">
+      <c r="A85" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="B85" s="74" t="s">
+      <c r="B85" s="73" t="s">
         <v>324</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="D85" s="76"/>
+      <c r="D85" s="75"/>
       <c r="E85" s="26"/>
       <c r="F85" s="26"/>
       <c r="G85" s="7"/>
-      <c r="I85" s="68"/>
+      <c r="I85" s="67"/>
     </row>
     <row r="86" ht="56" customHeight="1" spans="1:7">
-      <c r="A86" s="74" t="s">
+      <c r="A86" s="73" t="s">
         <v>325</v>
       </c>
-      <c r="B86" s="74" t="s">
+      <c r="B86" s="73" t="s">
         <v>326</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="D86" s="76">
+      <c r="D86" s="75">
         <v>1</v>
       </c>
       <c r="E86" s="34" t="s">
@@ -4583,152 +4535,152 @@
       </c>
     </row>
     <row r="87" ht="30" customHeight="1" spans="1:7">
-      <c r="A87" s="74" t="s">
+      <c r="A87" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="B87" s="74" t="s">
+      <c r="B87" s="73" t="s">
         <v>331</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="D87" s="76"/>
+      <c r="D87" s="75"/>
       <c r="E87" s="26"/>
       <c r="F87" s="26"/>
-      <c r="G87" s="57"/>
+      <c r="G87" s="56"/>
     </row>
     <row r="88" ht="30" customHeight="1" spans="1:7">
-      <c r="A88" s="74" t="s">
+      <c r="A88" s="73" t="s">
         <v>333</v>
       </c>
-      <c r="B88" s="74" t="s">
+      <c r="B88" s="73" t="s">
         <v>334</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="D88" s="76"/>
+      <c r="D88" s="75"/>
       <c r="E88" s="26"/>
       <c r="F88" s="26"/>
-      <c r="G88" s="57"/>
+      <c r="G88" s="56"/>
     </row>
     <row r="89" ht="30" customHeight="1" spans="1:7">
       <c r="A89" s="7"/>
-      <c r="B89" s="57" t="s">
+      <c r="B89" s="56" t="s">
         <v>335</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="D89" s="58">
+      <c r="D89" s="57">
         <v>1</v>
       </c>
       <c r="E89" s="34" t="s">
         <v>337</v>
       </c>
       <c r="F89" s="26"/>
-      <c r="G89" s="57"/>
+      <c r="G89" s="56"/>
     </row>
     <row r="90" ht="30" customHeight="1" spans="1:7">
-      <c r="A90" s="77" t="s">
+      <c r="A90" s="76" t="s">
         <v>338</v>
       </c>
-      <c r="B90" s="77" t="s">
+      <c r="B90" s="76" t="s">
         <v>339</v>
       </c>
       <c r="C90" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="D90" s="78">
+      <c r="D90" s="77">
         <v>1</v>
       </c>
       <c r="E90" s="34" t="s">
         <v>340</v>
       </c>
       <c r="F90" s="26"/>
-      <c r="G90" s="77"/>
+      <c r="G90" s="76"/>
     </row>
     <row r="91" ht="30" customHeight="1" spans="1:7">
-      <c r="A91" s="77" t="s">
+      <c r="A91" s="76" t="s">
         <v>341</v>
       </c>
-      <c r="B91" s="77" t="s">
+      <c r="B91" s="76" t="s">
         <v>342</v>
       </c>
       <c r="C91" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="D91" s="78"/>
+      <c r="D91" s="77"/>
       <c r="E91" s="26" t="s">
         <v>344</v>
       </c>
       <c r="F91" s="26"/>
-      <c r="G91" s="77"/>
+      <c r="G91" s="76"/>
     </row>
     <row r="92" ht="30" customHeight="1" spans="1:7">
-      <c r="A92" s="77" t="s">
+      <c r="A92" s="76" t="s">
         <v>345</v>
       </c>
-      <c r="B92" s="77" t="s">
+      <c r="B92" s="76" t="s">
         <v>346</v>
       </c>
       <c r="C92" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="D92" s="78"/>
+      <c r="D92" s="77"/>
       <c r="E92" s="26" t="s">
         <v>344</v>
       </c>
       <c r="F92" s="26"/>
-      <c r="G92" s="77"/>
+      <c r="G92" s="76"/>
     </row>
     <row r="93" ht="30" customHeight="1" spans="1:7">
-      <c r="A93" s="77" t="s">
+      <c r="A93" s="76" t="s">
         <v>348</v>
       </c>
-      <c r="B93" s="77" t="s">
+      <c r="B93" s="76" t="s">
         <v>349</v>
       </c>
       <c r="C93" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="D93" s="78">
+      <c r="D93" s="77">
         <v>1</v>
       </c>
       <c r="E93" s="26" t="s">
         <v>351</v>
       </c>
       <c r="F93" s="26"/>
-      <c r="G93" s="77" t="s">
+      <c r="G93" s="76" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="94" ht="30" customHeight="1" spans="1:7">
-      <c r="A94" s="77" t="s">
+      <c r="A94" s="76" t="s">
         <v>352</v>
       </c>
-      <c r="B94" s="77" t="s">
+      <c r="B94" s="76" t="s">
         <v>353</v>
       </c>
       <c r="C94" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="D94" s="77"/>
+      <c r="D94" s="76"/>
       <c r="E94" s="26"/>
       <c r="F94" s="26"/>
-      <c r="G94" s="77"/>
+      <c r="G94" s="76"/>
     </row>
     <row r="95" ht="30" customHeight="1" spans="1:7">
-      <c r="A95" s="77" t="s">
+      <c r="A95" s="76" t="s">
         <v>355</v>
       </c>
-      <c r="B95" s="77" t="s">
+      <c r="B95" s="76" t="s">
         <v>356</v>
       </c>
       <c r="C95" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="D95" s="76"/>
+      <c r="D95" s="75"/>
       <c r="E95" s="26"/>
       <c r="F95" s="26"/>
       <c r="G95" s="7" t="s">
@@ -4736,16 +4688,16 @@
       </c>
     </row>
     <row r="96" ht="30" customHeight="1" spans="1:7">
-      <c r="A96" s="77" t="s">
+      <c r="A96" s="76" t="s">
         <v>359</v>
       </c>
-      <c r="B96" s="77" t="s">
+      <c r="B96" s="76" t="s">
         <v>360</v>
       </c>
       <c r="C96" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="D96" s="76">
+      <c r="D96" s="75">
         <v>1</v>
       </c>
       <c r="E96" s="26" t="s">
@@ -4755,84 +4707,84 @@
       <c r="G96" s="7"/>
     </row>
     <row r="97" ht="30" customHeight="1" spans="1:7">
-      <c r="A97" s="77" t="s">
+      <c r="A97" s="76" t="s">
         <v>363</v>
       </c>
-      <c r="B97" s="77" t="s">
+      <c r="B97" s="76" t="s">
         <v>364</v>
       </c>
       <c r="C97" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="D97" s="76"/>
+      <c r="D97" s="75"/>
       <c r="E97" s="26" t="s">
         <v>363</v>
       </c>
       <c r="F97" s="26"/>
-      <c r="G97" s="77" t="s">
+      <c r="G97" s="76" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="98" ht="30" customHeight="1" spans="1:7">
-      <c r="A98" s="77" t="s">
+      <c r="A98" s="76" t="s">
         <v>365</v>
       </c>
-      <c r="B98" s="77" t="s">
+      <c r="B98" s="76" t="s">
         <v>366</v>
       </c>
       <c r="C98" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="D98" s="76"/>
+      <c r="D98" s="75"/>
       <c r="E98" s="26" t="s">
         <v>365</v>
       </c>
       <c r="F98" s="26"/>
-      <c r="G98" s="77" t="s">
+      <c r="G98" s="76" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="99" ht="30" customHeight="1" spans="1:7">
-      <c r="A99" s="77" t="s">
+      <c r="A99" s="76" t="s">
         <v>368</v>
       </c>
-      <c r="B99" s="77" t="s">
+      <c r="B99" s="76" t="s">
         <v>369</v>
       </c>
       <c r="C99" s="26" t="s">
         <v>370</v>
       </c>
-      <c r="D99" s="76"/>
+      <c r="D99" s="75"/>
       <c r="E99" s="26"/>
       <c r="F99" s="26"/>
       <c r="G99" s="7"/>
     </row>
     <row r="100" ht="30" customHeight="1" spans="1:7">
       <c r="A100" s="7"/>
-      <c r="B100" s="77" t="s">
+      <c r="B100" s="76" t="s">
         <v>371</v>
       </c>
       <c r="C100" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="D100" s="76"/>
+      <c r="D100" s="75"/>
       <c r="E100" s="26"/>
       <c r="F100" s="26"/>
-      <c r="G100" s="77" t="s">
+      <c r="G100" s="76" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="101" ht="30" customHeight="1" spans="1:7">
-      <c r="A101" s="77" t="s">
+      <c r="A101" s="76" t="s">
         <v>373</v>
       </c>
-      <c r="B101" s="77" t="s">
+      <c r="B101" s="76" t="s">
         <v>374</v>
       </c>
       <c r="C101" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="D101" s="76">
+      <c r="D101" s="75">
         <v>2</v>
       </c>
       <c r="E101" s="26"/>
@@ -4842,14 +4794,14 @@
       <c r="G101" s="7"/>
     </row>
     <row r="102" ht="30" customHeight="1" spans="1:7">
-      <c r="A102" s="77" t="s">
+      <c r="A102" s="76" t="s">
         <v>377</v>
       </c>
-      <c r="B102" s="77" t="s">
+      <c r="B102" s="76" t="s">
         <v>378</v>
       </c>
       <c r="C102" s="26"/>
-      <c r="D102" s="76"/>
+      <c r="D102" s="75"/>
       <c r="E102" s="26" t="s">
         <v>379</v>
       </c>
@@ -4857,125 +4809,125 @@
       <c r="G102" s="7"/>
     </row>
     <row r="103" ht="30" customHeight="1" spans="1:7">
-      <c r="A103" s="77" t="s">
+      <c r="A103" s="76" t="s">
         <v>380</v>
       </c>
-      <c r="B103" s="77" t="s">
+      <c r="B103" s="76" t="s">
         <v>381</v>
       </c>
       <c r="C103" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="D103" s="76">
+      <c r="D103" s="75">
         <v>2</v>
       </c>
-      <c r="E103" s="77"/>
+      <c r="E103" s="76"/>
       <c r="F103" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="G103" s="77"/>
+      <c r="G103" s="76"/>
     </row>
     <row r="104" ht="30" customHeight="1" spans="1:7">
-      <c r="A104" s="77" t="s">
+      <c r="A104" s="76" t="s">
         <v>384</v>
       </c>
-      <c r="B104" s="77" t="s">
+      <c r="B104" s="76" t="s">
         <v>385</v>
       </c>
       <c r="C104" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="D104" s="76"/>
+      <c r="D104" s="75"/>
       <c r="E104" s="26"/>
       <c r="F104" s="26"/>
       <c r="G104" s="7"/>
     </row>
     <row r="105" ht="30" customHeight="1" spans="1:7">
-      <c r="A105" s="77" t="s">
+      <c r="A105" s="76" t="s">
         <v>387</v>
       </c>
-      <c r="B105" s="77" t="s">
+      <c r="B105" s="76" t="s">
         <v>388</v>
       </c>
       <c r="C105" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="D105" s="76"/>
+      <c r="D105" s="75"/>
       <c r="E105" s="26"/>
       <c r="F105" s="26"/>
       <c r="G105" s="7"/>
     </row>
     <row r="106" ht="30" customHeight="1" spans="1:7">
-      <c r="A106" s="77" t="s">
+      <c r="A106" s="76" t="s">
         <v>390</v>
       </c>
-      <c r="B106" s="77" t="s">
+      <c r="B106" s="76" t="s">
         <v>391</v>
       </c>
       <c r="C106" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="D106" s="76"/>
+      <c r="D106" s="75"/>
       <c r="E106" s="26"/>
       <c r="F106" s="26"/>
       <c r="G106" s="7"/>
     </row>
     <row r="107" ht="30" customHeight="1" spans="1:7">
-      <c r="A107" s="77" t="s">
+      <c r="A107" s="76" t="s">
         <v>393</v>
       </c>
-      <c r="B107" s="77" t="s">
+      <c r="B107" s="76" t="s">
         <v>394</v>
       </c>
       <c r="C107" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="D107" s="76"/>
+      <c r="D107" s="75"/>
       <c r="E107" s="26"/>
       <c r="F107" s="26"/>
       <c r="G107" s="7"/>
     </row>
     <row r="108" ht="30" customHeight="1" spans="1:7">
-      <c r="A108" s="77" t="s">
+      <c r="A108" s="76" t="s">
         <v>396</v>
       </c>
-      <c r="B108" s="77" t="s">
+      <c r="B108" s="76" t="s">
         <v>397</v>
       </c>
       <c r="C108" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="D108" s="76"/>
+      <c r="D108" s="75"/>
       <c r="E108" s="26"/>
       <c r="F108" s="26"/>
       <c r="G108" s="7"/>
     </row>
     <row r="109" ht="30" customHeight="1" spans="1:7">
-      <c r="A109" s="77" t="s">
+      <c r="A109" s="76" t="s">
         <v>399</v>
       </c>
-      <c r="B109" s="77" t="s">
+      <c r="B109" s="76" t="s">
         <v>400</v>
       </c>
       <c r="C109" s="26" t="s">
         <v>399</v>
       </c>
-      <c r="D109" s="76"/>
+      <c r="D109" s="75"/>
       <c r="E109" s="26"/>
       <c r="F109" s="26"/>
       <c r="G109" s="7"/>
     </row>
     <row r="110" ht="30" customHeight="1" spans="1:7">
-      <c r="A110" s="77" t="s">
+      <c r="A110" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="B110" s="77" t="s">
+      <c r="B110" s="76" t="s">
         <v>402</v>
       </c>
       <c r="C110" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="D110" s="76"/>
+      <c r="D110" s="75"/>
       <c r="E110" s="26"/>
       <c r="F110" s="26"/>
       <c r="G110" s="7"/>
@@ -4984,13 +4936,13 @@
       <c r="A111" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B111" s="79" t="s">
+      <c r="B111" s="78" t="s">
         <v>405</v>
       </c>
       <c r="C111" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="D111" s="76"/>
+      <c r="D111" s="75"/>
       <c r="E111" s="26"/>
       <c r="F111" s="26"/>
       <c r="G111" s="3" t="s">
@@ -5001,13 +4953,13 @@
       <c r="A112" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="B112" s="79" t="s">
+      <c r="B112" s="78" t="s">
         <v>408</v>
       </c>
       <c r="C112" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="D112" s="76"/>
+      <c r="D112" s="75"/>
       <c r="E112" s="26"/>
       <c r="F112" s="26"/>
       <c r="G112" s="3" t="s">
@@ -5018,13 +4970,13 @@
       <c r="A113" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="B113" s="79" t="s">
+      <c r="B113" s="78" t="s">
         <v>411</v>
       </c>
       <c r="C113" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="D113" s="76"/>
+      <c r="D113" s="75"/>
       <c r="E113" s="26"/>
       <c r="F113" s="26"/>
       <c r="G113" s="3" t="s">
@@ -5041,7 +4993,7 @@
       <c r="C114" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="D114" s="76"/>
+      <c r="D114" s="75"/>
       <c r="E114" s="26"/>
       <c r="F114" s="26"/>
       <c r="G114" s="3" t="s">
@@ -5052,13 +5004,13 @@
       <c r="A115" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="B115" s="79" t="s">
+      <c r="B115" s="78" t="s">
         <v>416</v>
       </c>
       <c r="C115" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="D115" s="76"/>
+      <c r="D115" s="75"/>
       <c r="E115" s="26"/>
       <c r="F115" s="26"/>
       <c r="G115" s="3" t="s">
@@ -5069,13 +5021,13 @@
       <c r="A116" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="B116" s="79" t="s">
+      <c r="B116" s="78" t="s">
         <v>417</v>
       </c>
       <c r="C116" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="D116" s="76"/>
+      <c r="D116" s="75"/>
       <c r="E116" s="26"/>
       <c r="F116" s="26"/>
       <c r="G116" s="3" t="s">
@@ -5086,13 +5038,13 @@
       <c r="A117" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B117" s="79" t="s">
+      <c r="B117" s="78" t="s">
         <v>419</v>
       </c>
       <c r="C117" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="D117" s="76"/>
+      <c r="D117" s="75"/>
       <c r="E117" s="26"/>
       <c r="F117" s="26"/>
       <c r="G117" s="3" t="s">
@@ -5103,13 +5055,13 @@
       <c r="A118" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B118" s="79" t="s">
+      <c r="B118" s="78" t="s">
         <v>421</v>
       </c>
       <c r="C118" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="D118" s="76"/>
+      <c r="D118" s="75"/>
       <c r="E118" s="26"/>
       <c r="F118" s="26"/>
       <c r="G118" s="3" t="s">
@@ -5126,7 +5078,7 @@
       <c r="C119" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="D119" s="76"/>
+      <c r="D119" s="75"/>
       <c r="E119" s="26"/>
       <c r="F119" s="26"/>
       <c r="G119" s="3" t="s">
@@ -5143,7 +5095,7 @@
       <c r="C120" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="D120" s="76"/>
+      <c r="D120" s="75"/>
       <c r="E120" s="26"/>
       <c r="F120" s="26"/>
       <c r="G120" s="3" t="s">
@@ -5160,7 +5112,7 @@
       <c r="C121" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="D121" s="76"/>
+      <c r="D121" s="75"/>
       <c r="E121" s="26"/>
       <c r="F121" s="26"/>
       <c r="G121" s="3" t="s">
@@ -5171,13 +5123,13 @@
       <c r="A122" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="B122" s="79" t="s">
+      <c r="B122" s="78" t="s">
         <v>433</v>
       </c>
       <c r="C122" s="26" t="s">
         <v>432</v>
       </c>
-      <c r="D122" s="76"/>
+      <c r="D122" s="75"/>
       <c r="E122" s="26"/>
       <c r="F122" s="26"/>
       <c r="G122" s="3" t="s">
@@ -5188,13 +5140,13 @@
       <c r="A123" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="B123" s="79" t="s">
+      <c r="B123" s="78" t="s">
         <v>436</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="D123" s="76"/>
+      <c r="D123" s="75"/>
       <c r="E123" s="26"/>
       <c r="F123" s="26"/>
       <c r="G123" s="3" t="s">
@@ -5202,16 +5154,16 @@
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="80" t="s">
+      <c r="A124" s="79" t="s">
         <v>437</v>
       </c>
-      <c r="B124" s="79" t="s">
+      <c r="B124" s="78" t="s">
         <v>438</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="D124" s="76"/>
+      <c r="D124" s="75"/>
       <c r="E124" s="26"/>
       <c r="F124" s="26"/>
       <c r="G124" s="3"/>
@@ -5220,111 +5172,115 @@
       <c r="A125" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="B125" s="79" t="s">
+      <c r="B125" s="78" t="s">
         <v>441</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="D125" s="76"/>
+      <c r="D125" s="75"/>
       <c r="E125" s="26"/>
       <c r="F125" s="26"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="79" t="s">
+    <row r="126" ht="72" customHeight="1" spans="1:7">
+      <c r="A126" s="78" t="s">
         <v>442</v>
       </c>
-      <c r="B126" s="79" t="s">
+      <c r="B126" s="78" t="s">
         <v>443</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="D126" s="76"/>
-      <c r="E126" s="26"/>
+      <c r="D126" s="75">
+        <v>1</v>
+      </c>
+      <c r="E126" s="59" t="s">
+        <v>444</v>
+      </c>
       <c r="F126" s="26"/>
       <c r="G126" s="3"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>444</v>
-      </c>
-      <c r="B127" s="79" t="s">
         <v>445</v>
       </c>
+      <c r="B127" s="78" t="s">
+        <v>446</v>
+      </c>
       <c r="C127" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="D127" s="76"/>
+        <v>445</v>
+      </c>
+      <c r="D127" s="75"/>
       <c r="E127" s="26"/>
       <c r="F127" s="26"/>
       <c r="G127" s="3"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="B128" s="79" t="s">
         <v>447</v>
       </c>
+      <c r="B128" s="78" t="s">
+        <v>448</v>
+      </c>
       <c r="C128" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="D128" s="76"/>
+        <v>447</v>
+      </c>
+      <c r="D128" s="75"/>
       <c r="E128" s="26"/>
       <c r="F128" s="26"/>
       <c r="G128" s="3"/>
     </row>
     <row r="129" ht="17" spans="1:7">
-      <c r="A129" s="79" t="s">
-        <v>448</v>
-      </c>
-      <c r="B129" s="79" t="s">
+      <c r="A129" s="78" t="s">
         <v>449</v>
       </c>
+      <c r="B129" s="78" t="s">
+        <v>450</v>
+      </c>
       <c r="C129" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="D129" s="76"/>
+        <v>449</v>
+      </c>
+      <c r="D129" s="75"/>
       <c r="E129" s="26"/>
       <c r="F129" s="26"/>
       <c r="G129" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="130" ht="17" spans="1:7">
-      <c r="A130" s="79" t="s">
-        <v>451</v>
-      </c>
-      <c r="B130" s="79" t="s">
+      <c r="A130" s="78" t="s">
         <v>452</v>
       </c>
+      <c r="B130" s="78" t="s">
+        <v>453</v>
+      </c>
       <c r="C130" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="D130" s="76"/>
+        <v>452</v>
+      </c>
+      <c r="D130" s="75"/>
       <c r="E130" s="26"/>
       <c r="F130" s="26"/>
       <c r="G130" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="131" ht="17" spans="1:7">
-      <c r="A131" s="79" t="s">
+      <c r="A131" s="78" t="s">
         <v>305</v>
       </c>
-      <c r="B131" s="79" t="s">
-        <v>453</v>
+      <c r="B131" s="78" t="s">
+        <v>454</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="D131" s="76"/>
+      <c r="D131" s="75"/>
       <c r="E131" s="26"/>
       <c r="F131" s="26"/>
       <c r="G131" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/U-UI内容表.xlsx
+++ b/exceldata/excel/all/U-UI内容表.xlsx
@@ -1463,8 +1463,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -1508,11 +1508,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1522,19 +1528,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1542,35 +1547,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1582,9 +1558,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1599,17 +1575,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1620,15 +1611,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1650,14 +1658,6 @@
       <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1790,7 +1790,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1802,7 +1838,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1814,7 +1904,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1826,127 +1934,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2021,7 +2021,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2041,6 +2041,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2048,6 +2063,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2067,30 +2106,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2105,187 +2120,172 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" applyFill="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="47" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" applyFill="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="45" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2477,12 +2477,12 @@
   </cellXfs>
   <cellStyles count="59">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="1表头" xfId="1"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 4" xfId="3"/>
-    <cellStyle name="常规 5" xfId="4"/>
-    <cellStyle name="常规 6" xfId="5"/>
-    <cellStyle name="普通数值" xfId="6"/>
+    <cellStyle name="普通数值" xfId="1"/>
+    <cellStyle name="常规 6" xfId="2"/>
+    <cellStyle name="常规 5" xfId="3"/>
+    <cellStyle name="常规 4" xfId="4"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="1表头" xfId="6"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="7" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="8" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="9" builtinId="41"/>
@@ -2840,8 +2840,8 @@
   <sheetPr/>
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView tabSelected="1" topLeftCell="E60" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:7">
+    <row r="2" ht="45" customHeight="1" spans="1:7">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="F60" s="26"/>
       <c r="G60" s="47" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>

--- a/exceldata/excel/all/U-UI内容表.xlsx
+++ b/exceldata/excel/all/U-UI内容表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="455">
   <si>
     <t>1小的帮助框
 2大的带标题的
@@ -2840,8 +2840,8 @@
   <sheetPr/>
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E60" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="F52" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4097,7 +4097,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" ht="30" customHeight="1" spans="1:7">
+    <row r="63" ht="30" customHeight="1" spans="1:8">
       <c r="A63" s="56" t="s">
         <v>247</v>
       </c>
@@ -4112,9 +4112,14 @@
         <v>1226354</v>
       </c>
       <c r="F63" s="26"/>
-      <c r="G63" s="56"/>
-    </row>
-    <row r="64" ht="30" customHeight="1" spans="1:7">
+      <c r="G63" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="H63" s="62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" ht="30" customHeight="1" spans="1:8">
       <c r="A64" s="56" t="s">
         <v>250</v>
       </c>
@@ -4129,7 +4134,12 @@
         <v>253</v>
       </c>
       <c r="F64" s="26"/>
-      <c r="G64" s="56"/>
+      <c r="G64" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="H64" s="62" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" ht="30" customHeight="1" spans="1:7">
       <c r="A65" s="56" t="s">

--- a/exceldata/excel/all/U-UI内容表.xlsx
+++ b/exceldata/excel/all/U-UI内容表.xlsx
@@ -1424,7 +1424,7 @@
     <t>BarUI</t>
   </si>
   <si>
-    <t>参加小游戏获得英雄碎片//大堂参加扳手腕获得获得碎片//包厢参加倒红酒游戏获得英雄和情人碎片</t>
+    <t>玩游戏获取英雄碎片有概率获取整个英雄//疯狂点击按钮，直到充满左边蓝色进度条//玩游戏获取情人碎片，有概率获取整个情人//失败和成功均可获得情人碎片//具体玩法，点击按钮倾倒红酒，在时间结束时若红酒液面与酒杯左边刻度线相接近，则算作胜利</t>
   </si>
   <si>
     <t>倒红酒</t>
@@ -1464,8 +1464,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1501,13 +1501,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1516,46 +1509,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1567,7 +1525,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1583,7 +1555,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1595,6 +1574,27 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1611,9 +1611,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1621,21 +1626,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1648,16 +1645,19 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1784,18 +1784,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1808,7 +1796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1820,13 +1814,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1838,37 +1856,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1880,13 +1880,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1898,31 +1916,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1940,13 +1940,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2027,21 +2027,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2052,26 +2037,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2091,17 +2056,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2120,172 +2079,213 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" applyFill="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" applyFill="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2477,12 +2477,12 @@
   </cellXfs>
   <cellStyles count="59">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通数值" xfId="1"/>
-    <cellStyle name="常规 6" xfId="2"/>
-    <cellStyle name="常规 5" xfId="3"/>
-    <cellStyle name="常规 4" xfId="4"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="1表头" xfId="6"/>
+    <cellStyle name="1表头" xfId="1"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 4" xfId="3"/>
+    <cellStyle name="常规 5" xfId="4"/>
+    <cellStyle name="常规 6" xfId="5"/>
+    <cellStyle name="普通数值" xfId="6"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="7" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="8" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="9" builtinId="41"/>
@@ -2840,8 +2840,8 @@
   <sheetPr/>
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F52" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="B122" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
